--- a/medicine/Pharmacie/Céphalosporine/Céphalosporine.xlsx
+++ b/medicine/Pharmacie/Céphalosporine/Céphalosporine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalosporine</t>
+          <t>Céphalosporine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphalosporines sont une classe d'antibiotiques β-lactamines[1]. Avec les céphamycines, ils forment le sous-groupe des céphems.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphalosporines sont une classe d'antibiotiques β-lactamines. Avec les céphamycines, ils forment le sous-groupe des céphems.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalosporine</t>
+          <t>Céphalosporine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphalosporines ont été isolées de cultures de Cephalosporium acremonium (en) issues d'égouts de Cagliari en Sardaigne en 1948 par le scientifique Italien Giuseppe Brotzu[2]. Il a remarqué que ces cultures produisaient des substances agissant sur Salmonella typhi, l'agent responsable de la fièvre typhoïde. Les chercheurs de Sir William Dunn School of Pathology de l'Université d'Oxford ont isolé la céphalosporine C. Le noyau de céphalosporine, l'acide 7-aminocéphalosporanique (7-ACA), est dérivé de la céphalosporine C, et est proche du noyau pénicilline, l'acide 6-aminopenicillanique (6-APA), la différence résidant dans l'hétérocycle thioazoté, fusionné avec le bêta-lactame, à six atomes (thiazine) pour les céphalosporines et à cinq atomes (thiazolidine) pour les pénicillines. Les modifications des chaines latérales de 7-ACA ont conduit au développement d'agents antibiotiques utiles, et le premier dérivé cephalothin (cefalotin) a été commercialisé par Eli Lilly en 1964.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphalosporines ont été isolées de cultures de Cephalosporium acremonium (en) issues d'égouts de Cagliari en Sardaigne en 1948 par le scientifique Italien Giuseppe Brotzu. Il a remarqué que ces cultures produisaient des substances agissant sur Salmonella typhi, l'agent responsable de la fièvre typhoïde. Les chercheurs de Sir William Dunn School of Pathology de l'Université d'Oxford ont isolé la céphalosporine C. Le noyau de céphalosporine, l'acide 7-aminocéphalosporanique (7-ACA), est dérivé de la céphalosporine C, et est proche du noyau pénicilline, l'acide 6-aminopenicillanique (6-APA), la différence résidant dans l'hétérocycle thioazoté, fusionné avec le bêta-lactame, à six atomes (thiazine) pour les céphalosporines et à cinq atomes (thiazolidine) pour les pénicillines. Les modifications des chaines latérales de 7-ACA ont conduit au développement d'agents antibiotiques utiles, et le premier dérivé cephalothin (cefalotin) a été commercialisé par Eli Lilly en 1964.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phalosporine</t>
+          <t>Céphalosporine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphalosporines inhibent l'élaboration de la paroi bactérienne, en interférant avec la synthèse du peptidoglycane ou muréine, par un mécanisme d'inhibition compétitif des transpeptidases extra-cytoplasmiques[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphalosporines inhibent l'élaboration de la paroi bactérienne, en interférant avec la synthèse du peptidoglycane ou muréine, par un mécanisme d'inhibition compétitif des transpeptidases extra-cytoplasmiques,.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9phalosporine</t>
+          <t>Céphalosporine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +589,54 @@
           <t>Les générations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le noyau des céphalosporines peut être modifié pour acquérir diverses propriétés.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noyau des céphalosporines peut être modifié pour acquérir diverses propriétés.
 Plage d'action des différentes générations de céphalosporines sur différents types de bactéries
 GRAM POS. &lt;=======================&gt; GRAM NEG.
     &lt;= Céphalo 1re gen.=&gt;
                  &lt;= Céphalo 2e gen =&gt;.   
                         &lt;======= Céphalo 3e gen.======&gt;
   &lt;========== Céphalo 4e gen.===============&gt;
-Céphalosporines de première génération
-Céfacetrile (céphacetrile)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Céphalosporines de première génération</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Céfacetrile (céphacetrile)
 Céfadroxil (céfadroxyl ; Duricef, Oracéfal)
 Céfalexine (céphalexine ; Keflex, Keforal, Unilexin)
 Céfaloglycin (céphaloglycin)
@@ -598,18 +651,86 @@
 Céfradine (céphradine ; Velosef)
 Céfroxadine
 Céftézole
-céfaclor (Alfatil, Ceclor)
-Céphalosporines de deuxième génération
-céfamandole
+céfaclor (Alfatil, Ceclor)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Céphalosporines de deuxième génération</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>céfamandole
 céfuroxime (Zinnat, Ceftin)
 céfonicid
 céforanid
 cefprozil (Cefzil)
 loracarbef
 céfotétan
-céfoxitine
-Céphalosporines de troisième génération
-cefotiam hexetil (Texodil, Taketiam)
+céfoxitine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Céphalosporines de troisième génération</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>cefotiam hexetil (Texodil, Taketiam)
 ceftriaxone (Rocéphine)
 céfotaxime (Claforan)
 ceftizoxime
@@ -618,51 +739,155 @@
 ceftibuten
 céfixime (Oroken, Suprax)
 céfatamet
-cefpodoxime proxetil (Orelox)
-"Nouvelles" céphalosporines de troisième génération
-Elles sont caractérisées par la substitution du groupe méthoxyl- par un hémigroupe diméthylacétate, qu'il remplace auprès du groupe imine, ce qui a pour effet d'augmenter l'activité antibiotique contre Pseudomonas aeruginosa, mais de diminuer celle contre les staphylocoques[5].
+cefpodoxime proxetil (Orelox)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>"Nouvelles" céphalosporines de troisième génération</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Elles sont caractérisées par la substitution du groupe méthoxyl- par un hémigroupe diméthylacétate, qu'il remplace auprès du groupe imine, ce qui a pour effet d'augmenter l'activité antibiotique contre Pseudomonas aeruginosa, mais de diminuer celle contre les staphylocoques.
 ceftolozane
-ceftazidime
-Céphalosporines de quatrième génération
-céfépime (Axépim)
-cefpirome (Cefrom)
-Céphalosporines de cinquième génération
-Elles sont caractérisées par leur activité sur le staphylocoque doré résistant à la méthicilline (SARM) 
+ceftazidime</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Céphalosporines de quatrième génération</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>céfépime (Axépim)
+cefpirome (Cefrom)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les générations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Céphalosporines de cinquième génération</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Elles sont caractérisées par leur activité sur le staphylocoque doré résistant à la méthicilline (SARM) 
 ceftaroline
 ceftobiprole</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%A9phalosporine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Tableau d'efficacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphalosporines de 1re génération (C1G) sont actives sur les cocci gram positif (streptocoques et staphylocoques  méti-S), quelques entérobactéries (E. coli, Proteus Mirabilis, Klebsiella). Elles sont utilisées dans l'angine streptococcique, dans les épisodes d'exacerbations de bronchite chronique, et d'antibioprophylaxie en chirurgie (forme injectable) [6].  
-Notons que l'activité anti Gram+ est moins bonne que celle des pénicillines. La demi-vie est courte 1/2h à 1h30, la diffusion dans les poumons et l'élimination est urinaire[7].
-Les céphalosporines de 2e génération (C2G) sont actives sur les Cocci gram + (streptocoques et staphylocoques  méti-S), quelques entérobactéries (E. coli, Proteus Mirabilis, Klebsiella). Au total, le gain d'activité sur les entérocoques par rapport aux C1G est faible. Elles sont utilisées dans les infections de la sphère ORL : otite moyenne aiguë, sinusite aiguë, angine récidivante, dans les épisodes d'exacerbations de bronchite chronique[7].
-Les céfamycines sont des apparentées des C2G. Elles sont actives sur les anaérobies strictes comme bactéroïdes, les entérobactéries BLSE (E.cloacae, Klebsiella BLSE) et ont comme indications potentielles les infections abdominales, et les BLSE[7].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les céphalosporines de 1re génération (C1G) sont actives sur les cocci gram positif (streptocoques et staphylocoques  méti-S), quelques entérobactéries (E. coli, Proteus Mirabilis, Klebsiella). Elles sont utilisées dans l'angine streptococcique, dans les épisodes d'exacerbations de bronchite chronique, et d'antibioprophylaxie en chirurgie (forme injectable) .  
+Notons que l'activité anti Gram+ est moins bonne que celle des pénicillines. La demi-vie est courte 1/2h à 1h30, la diffusion dans les poumons et l'élimination est urinaire.
+Les céphalosporines de 2e génération (C2G) sont actives sur les Cocci gram + (streptocoques et staphylocoques  méti-S), quelques entérobactéries (E. coli, Proteus Mirabilis, Klebsiella). Au total, le gain d'activité sur les entérocoques par rapport aux C1G est faible. Elles sont utilisées dans les infections de la sphère ORL : otite moyenne aiguë, sinusite aiguë, angine récidivante, dans les épisodes d'exacerbations de bronchite chronique.
+Les céfamycines sont des apparentées des C2G. Elles sont actives sur les anaérobies strictes comme bactéroïdes, les entérobactéries BLSE (E.cloacae, Klebsiella BLSE) et ont comme indications potentielles les infections abdominales, et les BLSE.
 Voici un tableau d'efficacité potentiel des céphalosporine de 3e génération (C3G).
 Légende :
 spectre utile ;
@@ -670,13 +895,117 @@
 intermédiaire / résistance fréquente ;
 CG+ : Cocci gram + ;
 BGN : bacilles gram négatif ;
-BG+ : Bacilles gram +.
-C3G efficacité - Bactéries aérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-C3G efficacité - Bactéries anaérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-C3G efficacité - Autres bactéries
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+BG+ : Bacilles gram +.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C3G efficacité - Bactéries aérobies</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C3G efficacité - Bactéries anaérobies</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalosporine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C3G efficacité - Autres bactéries</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
 </t>
         </is>
       </c>
